--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1842.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1842.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.043456654686424</v>
+        <v>1.458696246147156</v>
       </c>
       <c r="B1">
-        <v>1.035603429949367</v>
+        <v>3.381775140762329</v>
       </c>
       <c r="C1">
-        <v>1.042937021614907</v>
+        <v>4.236068725585938</v>
       </c>
       <c r="D1">
-        <v>1.337263537154241</v>
+        <v>2.183442831039429</v>
       </c>
       <c r="E1">
-        <v>2.114471175015637</v>
+        <v>0.7384341359138489</v>
       </c>
     </row>
   </sheetData>
